--- a/asura/checklist.xlsx
+++ b/asura/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/asura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348F1C0E-6DA9-F14A-B30B-F0EB71F6E027}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB455D40-7CA7-4948-893C-878A4E9E8BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{237FCE1D-9187-EA46-8457-B48CF8B5ECDC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>year</t>
   </si>
@@ -186,6 +186,18 @@
   </si>
   <si>
     <t>Expert Set Twelve Devil General Mystery Horror RPG</t>
+  </si>
+  <si>
+    <t>鬼霧雨 伝奇ホラーＲＰＧ退魔戦記シナリオ集</t>
+  </si>
+  <si>
+    <t>Oni Drizzle: Exorcism Mystery Horror RPG Scenario Collection</t>
+  </si>
+  <si>
+    <t>oni_drizzle.jpg</t>
+  </si>
+  <si>
+    <t>scenario</t>
   </si>
 </sst>
 </file>
@@ -546,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5685209-7F8C-7241-B32E-3CF41564D6E2}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -828,6 +840,23 @@
         <v>16</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/asura/checklist.xlsx
+++ b/asura/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/asura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB455D40-7CA7-4948-893C-878A4E9E8BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FF4320-4495-954E-8A8F-FD36DD2DC6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{237FCE1D-9187-EA46-8457-B48CF8B5ECDC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>year</t>
   </si>
@@ -198,6 +198,15 @@
   </si>
   <si>
     <t>scenario</t>
+  </si>
+  <si>
+    <t>cosmo_complete_vol1.jpg</t>
+  </si>
+  <si>
+    <t>COSMO全集!! Vol.1</t>
+  </si>
+  <si>
+    <t>Cosmo Complete Collection Vol. 1</t>
   </si>
 </sst>
 </file>
@@ -558,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5685209-7F8C-7241-B32E-3CF41564D6E2}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -857,6 +866,26 @@
         <v>54</v>
       </c>
     </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1995</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/asura/checklist.xlsx
+++ b/asura/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/asura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FF4320-4495-954E-8A8F-FD36DD2DC6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5D9E78-7A37-4842-99A9-EF767E0F60B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{237FCE1D-9187-EA46-8457-B48CF8B5ECDC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
   <si>
     <t>year</t>
   </si>
@@ -207,6 +207,29 @@
   </si>
   <si>
     <t>Cosmo Complete Collection Vol. 1</t>
+  </si>
+  <si>
+    <t>asura_fantasy_v2.jpg</t>
+  </si>
+  <si>
+    <t>asura_horror_v2.jpg</t>
+  </si>
+  <si>
+    <t>アシュラファンタジーTRPG　基本ルール
+汎用ロールプレイングゲーム　Asuraシステム</t>
+  </si>
+  <si>
+    <t>ASURA Fantasy TRPG</t>
+  </si>
+  <si>
+    <t>真退魔戦記TRPG　基本ルール
+汎用ロールプレイングゲーム　Asuraシステム</t>
+  </si>
+  <si>
+    <t>ASURA System Exorcism Horror RPG</t>
+  </si>
+  <si>
+    <t>Terranets</t>
   </si>
 </sst>
 </file>
@@ -250,9 +273,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5685209-7F8C-7241-B32E-3CF41564D6E2}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -886,6 +912,46 @@
         <v>54</v>
       </c>
     </row>
+    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2004</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2004</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/asura/checklist.xlsx
+++ b/asura/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/asura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5D9E78-7A37-4842-99A9-EF767E0F60B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CD54C3-1F49-5B4F-8C00-6D0770CEDD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{237FCE1D-9187-EA46-8457-B48CF8B5ECDC}"/>
   </bookViews>
@@ -215,21 +215,19 @@
     <t>asura_horror_v2.jpg</t>
   </si>
   <si>
-    <t>アシュラファンタジーTRPG　基本ルール
-汎用ロールプレイングゲーム　Asuraシステム</t>
-  </si>
-  <si>
     <t>ASURA Fantasy TRPG</t>
   </si>
   <si>
-    <t>真退魔戦記TRPG　基本ルール
-汎用ロールプレイングゲーム　Asuraシステム</t>
-  </si>
-  <si>
     <t>ASURA System Exorcism Horror RPG</t>
   </si>
   <si>
     <t>Terranets</t>
+  </si>
+  <si>
+    <t>アシュラファンタジーTRPG　基本ルール 汎用ロールプレイングゲーム　Asuraシステム</t>
+  </si>
+  <si>
+    <t>真退魔戦記TRPG　基本ルール 汎用ロールプレイングゲーム　Asuraシステム</t>
   </si>
 </sst>
 </file>
@@ -596,12 +594,12 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="2" max="2" width="97.33203125" customWidth="1"/>
     <col min="3" max="3" width="52.33203125" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
@@ -912,18 +910,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2004</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
         <v>60</v>
       </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
         <v>58</v>
@@ -932,18 +930,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2004</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
         <v>62</v>
-      </c>
-      <c r="C19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" t="s">
-        <v>64</v>
       </c>
       <c r="E19" t="s">
         <v>59</v>

--- a/asura/checklist.xlsx
+++ b/asura/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/asura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CD54C3-1F49-5B4F-8C00-6D0770CEDD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5E3FF1-DC1E-B84D-B77B-AE8D8356D3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{237FCE1D-9187-EA46-8457-B48CF8B5ECDC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="82">
   <si>
     <t>year</t>
   </si>
@@ -228,6 +228,57 @@
   </si>
   <si>
     <t>真退魔戦記TRPG　基本ルール 汎用ロールプレイングゲーム　Asuraシステム</t>
+  </si>
+  <si>
+    <t>product_code</t>
+  </si>
+  <si>
+    <t>A008</t>
+  </si>
+  <si>
+    <t>A003</t>
+  </si>
+  <si>
+    <t>A004</t>
+  </si>
+  <si>
+    <t>AS2</t>
+  </si>
+  <si>
+    <t>AS3</t>
+  </si>
+  <si>
+    <t>A005</t>
+  </si>
+  <si>
+    <t>AS1</t>
+  </si>
+  <si>
+    <t>CZ1</t>
+  </si>
+  <si>
+    <t>GS1</t>
+  </si>
+  <si>
+    <t>A007</t>
+  </si>
+  <si>
+    <t>TS4</t>
+  </si>
+  <si>
+    <t>A006</t>
+  </si>
+  <si>
+    <t>TS1</t>
+  </si>
+  <si>
+    <t>TS2</t>
+  </si>
+  <si>
+    <t>TS3</t>
+  </si>
+  <si>
+    <t>PS1</t>
   </si>
 </sst>
 </file>
@@ -591,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5685209-7F8C-7241-B32E-3CF41564D6E2}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -606,7 +657,7 @@
     <col min="6" max="6" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,272 +676,350 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1992</v>
       </c>
       <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1992</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1992</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1992</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1993</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1993</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1993</v>
+      </c>
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1993</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1993</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1994</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
       <c r="F11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1993</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1994</v>
+      </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1994</v>
+      </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1994</v>
+      </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1995</v>
       </c>
@@ -909,8 +1038,11 @@
       <c r="F17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2004</v>
       </c>
@@ -930,7 +1062,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2004</v>
       </c>
@@ -951,6 +1083,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G15">
+    <sortCondition ref="A4:A15"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>